--- a/DataForTest/student_test_cases_generic.xlsx
+++ b/DataForTest/student_test_cases_generic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/supanassangtu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phans\Desktop\DataForTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925C23B-8DAB-BC40-ACC0-AE5F70FA7C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF9FB0-1289-49DD-9731-4A7CDBE8EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="0" windowWidth="11472" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,96 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
+    <t>50565600</t>
+  </si>
+  <si>
+    <t>30362704</t>
+  </si>
+  <si>
+    <t>46187055</t>
+  </si>
+  <si>
+    <t>68859161</t>
+  </si>
+  <si>
+    <t>13194447</t>
+  </si>
+  <si>
+    <t>56610537</t>
+  </si>
+  <si>
+    <t>79733566</t>
+  </si>
+  <si>
+    <t>89801892</t>
+  </si>
+  <si>
+    <t>19890672</t>
+  </si>
+  <si>
+    <t>67195513</t>
+  </si>
+  <si>
+    <t>รักเรียน</t>
+  </si>
+  <si>
+    <t>มีวินัย</t>
+  </si>
+  <si>
+    <t>ใฝ่รู้</t>
+  </si>
+  <si>
+    <t>มารยาทดี</t>
+  </si>
+  <si>
+    <t>ขยันหมั่นเพียร</t>
+  </si>
+  <si>
+    <t>อัธยาศัยดี</t>
+  </si>
+  <si>
+    <t>ใจเย็น</t>
+  </si>
+  <si>
+    <t>ตั้งใจเรียน</t>
+  </si>
+  <si>
+    <t>สุภาพ</t>
+  </si>
+  <si>
+    <t>รับผิดชอบ</t>
+  </si>
+  <si>
+    <t>นายเด็กดี</t>
+  </si>
+  <si>
+    <t>นางสาวขยัน</t>
+  </si>
+  <si>
+    <t>นายตั้งใจ</t>
+  </si>
+  <si>
+    <t>นายมุ่งมั่น</t>
+  </si>
+  <si>
+    <t>นางสาวสดใส</t>
+  </si>
+  <si>
+    <t>นายกล้าหาญ</t>
+  </si>
+  <si>
+    <t>นายอ่อนโยน</t>
+  </si>
+  <si>
+    <t>นางสาวอดทน</t>
+  </si>
+  <si>
+    <t>นางสาวจริงใจ</t>
+  </si>
+  <si>
+    <t>นางสาวเรียนดี</t>
+  </si>
+  <si>
     <t>รหัสนิสิต</t>
   </si>
   <si>
@@ -29,96 +119,6 @@
   </si>
   <si>
     <t>นามสกุล</t>
-  </si>
-  <si>
-    <t>50565600</t>
-  </si>
-  <si>
-    <t>30362704</t>
-  </si>
-  <si>
-    <t>46187055</t>
-  </si>
-  <si>
-    <t>68859161</t>
-  </si>
-  <si>
-    <t>13194447</t>
-  </si>
-  <si>
-    <t>56610537</t>
-  </si>
-  <si>
-    <t>79733566</t>
-  </si>
-  <si>
-    <t>89801892</t>
-  </si>
-  <si>
-    <t>19890672</t>
-  </si>
-  <si>
-    <t>67195513</t>
-  </si>
-  <si>
-    <t>เด็กดี</t>
-  </si>
-  <si>
-    <t>ขยัน</t>
-  </si>
-  <si>
-    <t>ตั้งใจ</t>
-  </si>
-  <si>
-    <t>มุ่งมั่น</t>
-  </si>
-  <si>
-    <t>สดใส</t>
-  </si>
-  <si>
-    <t>กล้าหาญ</t>
-  </si>
-  <si>
-    <t>อ่อนโยน</t>
-  </si>
-  <si>
-    <t>อดทน</t>
-  </si>
-  <si>
-    <t>จริงใจ</t>
-  </si>
-  <si>
-    <t>เรียนดี</t>
-  </si>
-  <si>
-    <t>รักเรียน</t>
-  </si>
-  <si>
-    <t>มีวินัย</t>
-  </si>
-  <si>
-    <t>ใฝ่รู้</t>
-  </si>
-  <si>
-    <t>มารยาทดี</t>
-  </si>
-  <si>
-    <t>ขยันหมั่นเพียร</t>
-  </si>
-  <si>
-    <t>อัธยาศัยดี</t>
-  </si>
-  <si>
-    <t>ใจเย็น</t>
-  </si>
-  <si>
-    <t>ตั้งใจเรียน</t>
-  </si>
-  <si>
-    <t>สุภาพ</t>
-  </si>
-  <si>
-    <t>รับผิดชอบ</t>
   </si>
 </sst>
 </file>
@@ -488,129 +488,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
